--- a/100runs/run040/NotionalETEOutput040.xlsx
+++ b/100runs/run040/NotionalETEOutput040.xlsx
@@ -49,25 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_BRAVER_342.MISSILE_BRAVER_342</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_473.MISSILE_SOMERSAULT_473</t>
+    <t>MISSILE_SOMERSAULT_234.MISSILE_SOMERSAULT_234</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_61.MISSILE_HIGHWIND_61</t>
+    <t>MISSILE_SOMERSAULT_71.MISSILE_SOMERSAULT_71</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_187.MISSILE_HIGHWIND_187</t>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -483,22 +483,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G2">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H2">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I2">
-        <v>-770.5596961303636</v>
+        <v>1114862.095582585</v>
       </c>
       <c r="J2">
-        <v>2687.835050802716</v>
+        <v>4843222.060113069</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984373.405801494</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,22 +518,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G3">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H3">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I3">
-        <v>-755.3467959306927</v>
+        <v>1114891.709598656</v>
       </c>
       <c r="J3">
-        <v>2622.451328734693</v>
+        <v>4843173.408537033</v>
       </c>
       <c r="K3">
-        <v>358.0780949614004</v>
+        <v>3984677.202028663</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,22 +553,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G4">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H4">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I4">
-        <v>-739.7592920592165</v>
+        <v>1114922.052832629</v>
       </c>
       <c r="J4">
-        <v>2557.067606666671</v>
+        <v>4843124.756960997</v>
       </c>
       <c r="K4">
-        <v>698.300774736963</v>
+        <v>3984965.849583395</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,22 +588,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G5">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H5">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I5">
-        <v>-723.7879602451458</v>
+        <v>1114953.143240823</v>
       </c>
       <c r="J5">
-        <v>2491.683884598649</v>
+        <v>4843076.105384963</v>
       </c>
       <c r="K5">
-        <v>1020.668039326691</v>
+        <v>3985239.348465688</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,22 +623,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G6">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H6">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I6">
-        <v>-707.4233490785094</v>
+        <v>1114984.999221716</v>
       </c>
       <c r="J6">
-        <v>2426.300162530626</v>
+        <v>4843027.453808927</v>
       </c>
       <c r="K6">
-        <v>1325.179888730581</v>
+        <v>3985497.698675542</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,22 +658,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G7">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H7">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I7">
-        <v>-690.6557744170607</v>
+        <v>1115017.639626832</v>
       </c>
       <c r="J7">
-        <v>2360.916440462604</v>
+        <v>4842978.802232892</v>
       </c>
       <c r="K7">
-        <v>1611.836322948636</v>
+        <v>3985740.900212957</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,22 +693,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G8">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H8">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I8">
-        <v>-673.4753136554598</v>
+        <v>1115051.083771895</v>
       </c>
       <c r="J8">
-        <v>2295.532718394582</v>
+        <v>4842930.150656857</v>
       </c>
       <c r="K8">
-        <v>1880.637341980854</v>
+        <v>3985968.953077934</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,22 +728,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G9">
-        <v>-108.6217639733916</v>
+        <v>4841122.920636251</v>
       </c>
       <c r="H9">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I9">
-        <v>-655.8717998533384</v>
+        <v>1115085.351448263</v>
       </c>
       <c r="J9">
-        <v>2230.148996326559</v>
+        <v>4842881.499080821</v>
       </c>
       <c r="K9">
-        <v>2131.582945827236</v>
+        <v>3986181.857270472</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,22 +763,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>186.4033160366364</v>
+        <v>1116577.948593532</v>
       </c>
       <c r="G10">
-        <v>-90.68525323988023</v>
+        <v>4841139.433449858</v>
       </c>
       <c r="H10">
-        <v>1010.760835411026</v>
+        <v>3985228.009141095</v>
       </c>
       <c r="I10">
-        <v>-637.8348157187758</v>
+        <v>1115120.462934635</v>
       </c>
       <c r="J10">
-        <v>2164.765274258537</v>
+        <v>4842832.847504786</v>
       </c>
       <c r="K10">
-        <v>2364.673134487781</v>
+        <v>3986379.612790572</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,22 +798,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>144.6707183951602</v>
+        <v>1116529.26805397</v>
       </c>
       <c r="G11">
-        <v>-72.74874250636886</v>
+        <v>4841155.946263465</v>
       </c>
       <c r="H11">
-        <v>1245.250547760305</v>
+        <v>3985427.26353191</v>
       </c>
       <c r="I11">
-        <v>-619.3536874436204</v>
+        <v>1115156.439009057</v>
       </c>
       <c r="J11">
-        <v>2099.381552190515</v>
+        <v>4842784.195928751</v>
       </c>
       <c r="K11">
-        <v>2579.90790796249</v>
+        <v>3986562.219638233</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,22 +833,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>120.1549108138836</v>
+        <v>1116500.670679057</v>
       </c>
       <c r="G12">
-        <v>-54.81223177285749</v>
+        <v>4841172.459077073</v>
       </c>
       <c r="H12">
-        <v>1384.924612694702</v>
+        <v>3985545.949637335</v>
       </c>
       <c r="I12">
-        <v>-600.4174783870158</v>
+        <v>1115193.300961214</v>
       </c>
       <c r="J12">
-        <v>2033.997830122493</v>
+        <v>4842735.544352715</v>
       </c>
       <c r="K12">
-        <v>2777.287266251363</v>
+        <v>3986729.677813455</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,22 +868,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>104.6787344979386</v>
+        <v>1116482.617918003</v>
       </c>
       <c r="G13">
-        <v>-36.87572103934611</v>
+        <v>4841188.97189068</v>
       </c>
       <c r="H13">
-        <v>1484.740226694159</v>
+        <v>3985630.766575195</v>
       </c>
       <c r="I13">
-        <v>-581.0149826033847</v>
+        <v>1115231.070605031</v>
       </c>
       <c r="J13">
-        <v>1968.614108054471</v>
+        <v>4842686.89277668</v>
       </c>
       <c r="K13">
-        <v>2956.8112093544</v>
+        <v>3986881.987316239</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,22 +903,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>93.88571195668639</v>
+        <v>1116470.027995724</v>
       </c>
       <c r="G14">
-        <v>-18.93921030583473</v>
+        <v>4841205.484704288</v>
       </c>
       <c r="H14">
-        <v>1562.466591839282</v>
+        <v>3985696.813479266</v>
       </c>
       <c r="I14">
-        <v>-561.134718211051</v>
+        <v>1115269.770291579</v>
       </c>
       <c r="J14">
-        <v>1903.230385986448</v>
+        <v>4842638.241200645</v>
       </c>
       <c r="K14">
-        <v>3118.479737271601</v>
+        <v>3987019.148146584</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,22 +938,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>85.83379392676488</v>
+        <v>1116460.635536678</v>
       </c>
       <c r="G15">
-        <v>-1.002699572323373</v>
+        <v>4841221.997517895</v>
       </c>
       <c r="H15">
-        <v>1626.130513899572</v>
+        <v>3985750.911016766</v>
       </c>
       <c r="I15">
-        <v>-540.7649205975638</v>
+        <v>1115309.422922306</v>
       </c>
       <c r="J15">
-        <v>1837.846663918426</v>
+        <v>4842589.58962461</v>
       </c>
       <c r="K15">
-        <v>3262.292850002964</v>
+        <v>3987141.160304491</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,22 +973,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>79.53831844438376</v>
+        <v>1116453.291945323</v>
       </c>
       <c r="G16">
-        <v>16.933811161188</v>
+        <v>4841238.510331502</v>
       </c>
       <c r="H16">
-        <v>1680.049208643568</v>
+        <v>3985796.727682099</v>
       </c>
       <c r="I16">
-        <v>-519.8935354577147</v>
+        <v>1115350.051962584</v>
       </c>
       <c r="J16">
-        <v>1772.462941850404</v>
+        <v>4842540.938048573</v>
       </c>
       <c r="K16">
-        <v>3388.250547548491</v>
+        <v>3987248.023789959</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,22 +1008,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>74.444820390537</v>
+        <v>1116447.350445212</v>
       </c>
       <c r="G17">
-        <v>34.87032189469938</v>
+        <v>4841255.02314511</v>
       </c>
       <c r="H17">
-        <v>1726.813856276194</v>
+        <v>3985836.465294817</v>
       </c>
       <c r="I17">
-        <v>-498.5082116601189</v>
+        <v>1115391.681455602</v>
       </c>
       <c r="J17">
-        <v>1707.079219782382</v>
+        <v>4842492.286472538</v>
       </c>
       <c r="K17">
-        <v>3496.352829908182</v>
+        <v>3987339.738602988</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,22 +1043,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>70.21540209081401</v>
+        <v>1116442.416883044</v>
       </c>
       <c r="G18">
-        <v>52.80683262821074</v>
+        <v>4841271.535958718</v>
       </c>
       <c r="H18">
-        <v>1768.102412600962</v>
+        <v>3985871.549674663</v>
       </c>
       <c r="I18">
-        <v>-476.5962939381446</v>
+        <v>1115434.336036586</v>
       </c>
       <c r="J18">
-        <v>1641.695497714359</v>
+        <v>4842443.634896504</v>
       </c>
       <c r="K18">
-        <v>3586.599697082038</v>
+        <v>3987416.304743579</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,22 +1078,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>66.63128830598626</v>
+        <v>1116438.236060312</v>
       </c>
       <c r="G19">
-        <v>70.74334336172214</v>
+        <v>4841288.048772325</v>
       </c>
       <c r="H19">
-        <v>1805.063978961524</v>
+        <v>3985902.957254616</v>
       </c>
       <c r="I19">
-        <v>-454.1448154008613</v>
+        <v>1115478.040947386</v>
       </c>
       <c r="J19">
-        <v>1576.311775646337</v>
+        <v>4842394.983320468</v>
       </c>
       <c r="K19">
-        <v>3658.991149070057</v>
+        <v>3987477.722211731</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,22 +1113,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>63.54392394781085</v>
+        <v>1116434.634689411</v>
       </c>
       <c r="G20">
-        <v>88.67985409523349</v>
+        <v>4841304.561585932</v>
       </c>
       <c r="H20">
-        <v>1838.520066846891</v>
+        <v>3985931.386102703</v>
       </c>
       <c r="I20">
-        <v>-431.1404898595787</v>
+        <v>1115522.822051406</v>
       </c>
       <c r="J20">
-        <v>1510.928053578315</v>
+        <v>4842346.331744432</v>
       </c>
       <c r="K20">
-        <v>3713.527185872239</v>
+        <v>3987523.991007445</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,22 +1148,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>60.84849533365262</v>
+        <v>1116431.490506525</v>
       </c>
       <c r="G21">
-        <v>106.6163648287449</v>
+        <v>4841321.07439954</v>
       </c>
       <c r="H21">
-        <v>1869.078383042157</v>
+        <v>3985957.352609366</v>
       </c>
       <c r="I21">
-        <v>-407.5697039654337</v>
+        <v>1115568.705848915</v>
       </c>
       <c r="J21">
-        <v>1445.544331510293</v>
+        <v>4842297.680168398</v>
       </c>
       <c r="K21">
-        <v>3750.207807488584</v>
+        <v>3987555.11113072</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,22 +1183,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>58.46868662473122</v>
+        <v>1116428.714490208</v>
       </c>
       <c r="G22">
-        <v>124.5528755622562</v>
+        <v>4841337.587213147</v>
       </c>
       <c r="H22">
-        <v>1897.201135404494</v>
+        <v>3985981.249529336</v>
       </c>
       <c r="I22">
-        <v>-383.4185091533707</v>
+        <v>1115615.719492726</v>
       </c>
       <c r="J22">
-        <v>1380.16060944227</v>
+        <v>4842249.028592362</v>
       </c>
       <c r="K22">
-        <v>3769.033013919094</v>
+        <v>3987571.082581556</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,22 +1218,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>56.3474514529996</v>
+        <v>1116426.240096604</v>
       </c>
       <c r="G23">
-        <v>142.4893862957676</v>
+        <v>4841354.100026755</v>
       </c>
       <c r="H23">
-        <v>1923.248067092605</v>
+        <v>3986003.382549391</v>
       </c>
       <c r="I23">
-        <v>-358.6726133877524</v>
+        <v>1115663.890804263</v>
       </c>
       <c r="J23">
-        <v>1314.776887374248</v>
+        <v>4842200.377016327</v>
       </c>
       <c r="K23">
-        <v>3770.002805163767</v>
+        <v>3987571.905359955</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,22 +1253,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>54.44118664665076</v>
+        <v>1116424.016463172</v>
       </c>
       <c r="G24">
-        <v>160.425897029279</v>
+        <v>4841370.612840363</v>
       </c>
       <c r="H24">
-        <v>1947.5046701561</v>
+        <v>3986023.994262452</v>
       </c>
       <c r="I24">
-        <v>-333.3173727047125</v>
+        <v>1115713.24829003</v>
       </c>
       <c r="J24">
-        <v>1249.393165306226</v>
+        <v>4842151.725440291</v>
       </c>
       <c r="K24">
-        <v>3753.117181222604</v>
+        <v>3987557.579465913</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,22 +1288,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>52.71592085455536</v>
+        <v>1116422.003962767</v>
       </c>
       <c r="G25">
-        <v>178.3624077627904</v>
+        <v>4841387.125653969</v>
       </c>
       <c r="H25">
-        <v>1970.20131068042</v>
+        <v>3986043.280418914</v>
       </c>
       <c r="I25">
-        <v>-307.3377825462462</v>
+        <v>1115763.821158476</v>
       </c>
       <c r="J25">
-        <v>1184.009443238204</v>
+        <v>4842103.073864256</v>
       </c>
       <c r="K25">
-        <v>3718.376142095605</v>
+        <v>3987528.104899434</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,22 +1323,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>51.14474420664896</v>
+        <v>1116420.171205371</v>
       </c>
       <c r="G26">
-        <v>196.2989184963018</v>
+        <v>4841403.638467577</v>
       </c>
       <c r="H26">
-        <v>1991.526567034672</v>
+        <v>3986061.40126064</v>
       </c>
       <c r="I26">
-        <v>-280.7184688809125</v>
+        <v>1115815.639337282</v>
       </c>
       <c r="J26">
-        <v>1118.625721170181</v>
+        <v>4842054.422288221</v>
       </c>
       <c r="K26">
-        <v>3665.779687782769</v>
+        <v>3987483.481660516</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,22 +1358,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>49.70602860096125</v>
+        <v>1116418.492962082</v>
       </c>
       <c r="G27">
-        <v>214.2354292298131</v>
+        <v>4841420.151281184</v>
       </c>
       <c r="H27">
-        <v>2011.636763056861</v>
+        <v>3986078.489621649</v>
       </c>
       <c r="I27">
-        <v>-253.4436791058895</v>
+        <v>1115868.733491068</v>
       </c>
       <c r="J27">
-        <v>1053.241999102159</v>
+        <v>4842005.770712185</v>
       </c>
       <c r="K27">
-        <v>3595.327818284097</v>
+        <v>3987423.709749159</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,22 +1393,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>48.38216667776614</v>
+        <v>1116416.948694138</v>
       </c>
       <c r="G28">
-        <v>232.1719399633245</v>
+        <v>4841436.664094792</v>
       </c>
       <c r="H28">
-        <v>2030.66292875054</v>
+        <v>3986094.656842876</v>
       </c>
       <c r="I28">
-        <v>-225.4972727250032</v>
+        <v>1115923.135039546</v>
       </c>
       <c r="J28">
-        <v>987.8582770341369</v>
+        <v>4841957.11913615</v>
       </c>
       <c r="K28">
-        <v>3507.020533599589</v>
+        <v>3987348.789165364</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,22 +1428,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>47.15865995537132</v>
+        <v>1116415.521489249</v>
       </c>
       <c r="G29">
-        <v>250.1084506968359</v>
+        <v>4841453.1769084</v>
       </c>
       <c r="H29">
-        <v>2048.71597901928</v>
+        <v>3986109.997172724</v>
       </c>
       <c r="I29">
-        <v>-196.8627117972097</v>
+        <v>1115978.876176107</v>
       </c>
       <c r="J29">
-        <v>922.4745549661146</v>
+        <v>4841908.467560115</v>
       </c>
       <c r="K29">
-        <v>3400.857833729244</v>
+        <v>3987258.719909131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,22 +1463,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>46.02344742663304</v>
+        <v>1116414.197278403</v>
       </c>
       <c r="G30">
-        <v>268.0449614303472</v>
+        <v>4841469.689722006</v>
       </c>
       <c r="H30">
-        <v>2065.890631303894</v>
+        <v>3986124.591096032</v>
       </c>
       <c r="I30">
-        <v>-167.5230511498824</v>
+        <v>1116035.989886875</v>
       </c>
       <c r="J30">
-        <v>857.0908328980922</v>
+        <v>4841859.81598408</v>
       </c>
       <c r="K30">
-        <v>3276.839718673063</v>
+        <v>3987153.501980458</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,22 +1498,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.96640315243187</v>
+        <v>1116412.964249823</v>
       </c>
       <c r="G31">
-        <v>285.9814721638586</v>
+        <v>4841486.202535614</v>
       </c>
       <c r="H31">
-        <v>2082.268413585602</v>
+        <v>3986138.507890073</v>
       </c>
       <c r="I31">
-        <v>-137.4609283511076</v>
+        <v>1116094.509970226</v>
       </c>
       <c r="J31">
-        <v>791.7071108300702</v>
+        <v>4841811.164408044</v>
       </c>
       <c r="K31">
-        <v>3134.966188431046</v>
+        <v>3987033.135379347</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,22 +1533,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.97895480874282</v>
+        <v>1116411.812404003</v>
       </c>
       <c r="G32">
-        <v>303.91798289737</v>
+        <v>4841502.715349222</v>
       </c>
       <c r="H32">
-        <v>2097.920004996262</v>
+        <v>3986151.807613462</v>
       </c>
       <c r="I32">
-        <v>-106.6585534350588</v>
+        <v>1116154.471056793</v>
       </c>
       <c r="J32">
-        <v>726.3233887620478</v>
+        <v>4841762.512832008</v>
       </c>
       <c r="K32">
-        <v>2975.237243003192</v>
+        <v>3986897.620105798</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,22 +1568,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>43.05379023447043</v>
+        <v>1116410.7332114</v>
       </c>
       <c r="G33">
-        <v>321.8544936308813</v>
+        <v>4841519.228162829</v>
       </c>
       <c r="H33">
-        <v>2112.907079202502</v>
+        <v>3986164.542672545</v>
       </c>
       <c r="I33">
-        <v>-75.09769837436741</v>
+        <v>1116215.908629953</v>
       </c>
       <c r="J33">
-        <v>660.9396666940257</v>
+        <v>4841713.861255974</v>
       </c>
       <c r="K33">
-        <v>2797.652882389503</v>
+        <v>3986746.95615981</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,22 +1603,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>42.18462896439616</v>
+        <v>1116409.719345934</v>
       </c>
       <c r="G34">
-        <v>339.7910043643927</v>
+        <v>4841535.740976436</v>
       </c>
       <c r="H34">
-        <v>2127.283772168124</v>
+        <v>3986176.759068607</v>
       </c>
       <c r="I34">
-        <v>-42.75968629326074</v>
+        <v>1116278.859046831</v>
       </c>
       <c r="J34">
-        <v>595.5559446260033</v>
+        <v>4841665.209679939</v>
       </c>
       <c r="K34">
-        <v>2602.213106589976</v>
+        <v>3986581.143541383</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,22 +1638,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>41.36604240541455</v>
+        <v>1116408.764475218</v>
       </c>
       <c r="G35">
-        <v>357.7275150979041</v>
+        <v>4841552.253790043</v>
       </c>
       <c r="H35">
-        <v>2141.097862556882</v>
+        <v>3986188.49740091</v>
       </c>
       <c r="I35">
-        <v>-9.625380415082548</v>
+        <v>1116343.359559811</v>
       </c>
       <c r="J35">
-        <v>530.1722225579809</v>
+        <v>4841616.558103902</v>
       </c>
       <c r="K35">
-        <v>2388.917915604613</v>
+        <v>3986400.182250517</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,22 +1673,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>40.59331087738013</v>
+        <v>1116407.863093808</v>
       </c>
       <c r="G36">
-        <v>375.6640258314155</v>
+        <v>4841568.766603651</v>
       </c>
       <c r="H36">
-        <v>2154.391729750781</v>
+        <v>3986199.793680746</v>
       </c>
       <c r="I36">
-        <v>24.32482726234341</v>
+        <v>1116409.448338584</v>
       </c>
       <c r="J36">
-        <v>464.7885004899589</v>
+        <v>4841567.906527868</v>
       </c>
       <c r="K36">
-        <v>2157.767309433415</v>
+        <v>3986204.072287214</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,22 +1708,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.86230891137585</v>
+        <v>1116407.010389396</v>
       </c>
       <c r="G37">
-        <v>393.6005365649268</v>
+        <v>4841585.279417259</v>
       </c>
       <c r="H37">
-        <v>2167.203137939538</v>
+        <v>3986210.679997712</v>
       </c>
       <c r="I37">
-        <v>59.11102757020758</v>
+        <v>1116477.164492733</v>
       </c>
       <c r="J37">
-        <v>399.4047784219366</v>
+        <v>4841519.254951832</v>
       </c>
       <c r="K37">
-        <v>1908.76128807638</v>
+        <v>3985992.813651471</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,22 +1743,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>39.16941243577702</v>
+        <v>1116406.202134549</v>
       </c>
       <c r="G38">
-        <v>411.5370472984382</v>
+        <v>4841601.792230866</v>
       </c>
       <c r="H38">
-        <v>2179.565882849549</v>
+        <v>3986221.185069262</v>
       </c>
       <c r="I38">
-        <v>94.75380605793576</v>
+        <v>1116546.548094881</v>
       </c>
       <c r="J38">
-        <v>334.0210563539144</v>
+        <v>4841470.603375797</v>
       </c>
       <c r="K38">
-        <v>1641.899851533509</v>
+        <v>3985766.40634329</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,22 +1778,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>38.51142308111469</v>
+        <v>1116405.434598412</v>
       </c>
       <c r="G39">
-        <v>429.4735580319496</v>
+        <v>4841618.305044473</v>
       </c>
       <c r="H39">
-        <v>2191.510329013672</v>
+        <v>3986231.334697236</v>
       </c>
       <c r="I39">
-        <v>131.2742551751689</v>
+        <v>1116617.6402044</v>
       </c>
       <c r="J39">
-        <v>268.6373342858921</v>
+        <v>4841421.951799762</v>
       </c>
       <c r="K39">
-        <v>1357.1829998048</v>
+        <v>3985524.85036267</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,22 +1813,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.88550599443565</v>
+        <v>1116404.704474163</v>
       </c>
       <c r="G40">
-        <v>447.4100687654609</v>
+        <v>4841634.817858081</v>
       </c>
       <c r="H40">
-        <v>2203.063859087076</v>
+        <v>3986241.152149667</v>
       </c>
       <c r="I40">
-        <v>168.6939867537172</v>
+        <v>1116690.482891712</v>
       </c>
       <c r="J40">
-        <v>203.2536122178697</v>
+        <v>4841373.300223726</v>
       </c>
       <c r="K40">
-        <v>1054.610732890256</v>
+        <v>3985268.145709612</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,22 +1848,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>37.28913840407095</v>
+        <v>1116404.008819022</v>
       </c>
       <c r="G41">
-        <v>465.3465794989723</v>
+        <v>4841651.330671688</v>
       </c>
       <c r="H41">
-        <v>2214.251251941034</v>
+        <v>3986250.658482058</v>
       </c>
       <c r="I41">
-        <v>207.0351447968648</v>
+        <v>1116765.119263185</v>
       </c>
       <c r="J41">
-        <v>137.8698901498477</v>
+        <v>4841324.648647691</v>
       </c>
       <c r="K41">
-        <v>734.1830507898757</v>
+        <v>3984996.292384115</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,22 +1883,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>36.72006680593579</v>
+        <v>1116403.345004307</v>
       </c>
       <c r="G42">
-        <v>483.2830902324837</v>
+        <v>4841667.843485296</v>
       </c>
       <c r="H42">
-        <v>2225.095002666848</v>
+        <v>3986259.872809303</v>
       </c>
       <c r="I42">
-        <v>246.3204185836071</v>
+        <v>1116841.593486642</v>
       </c>
       <c r="J42">
-        <v>72.48616808182528</v>
+        <v>4841275.997071656</v>
       </c>
       <c r="K42">
-        <v>395.8999535036583</v>
+        <v>3984709.290386179</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,22 +1918,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>36.17627111441041</v>
+        <v>1116402.710673611</v>
       </c>
       <c r="G43">
-        <v>501.2196009659951</v>
+        <v>4841684.356298904</v>
       </c>
       <c r="H43">
-        <v>2235.615594881254</v>
+        <v>3986268.81253707</v>
       </c>
       <c r="I43">
-        <v>286.5730560955585</v>
+        <v>1116919.950817496</v>
       </c>
       <c r="J43">
-        <v>7.102446013802916</v>
+        <v>4841227.34549562</v>
       </c>
       <c r="K43">
-        <v>39.7614410316049</v>
+        <v>3984407.139715806</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,22 +1953,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>35.65593447765107</v>
+        <v>1116402.103707602</v>
       </c>
       <c r="G44">
-        <v>519.1561116995065</v>
+        <v>4841700.86911251</v>
       </c>
       <c r="H44">
-        <v>2245.831733618588</v>
+        <v>3986277.493559705</v>
       </c>
       <c r="I44">
-        <v>327.8168777744938</v>
+        <v>1117000.237625535</v>
       </c>
       <c r="J44">
-        <v>-58.28127605421915</v>
+        <v>4841178.693919585</v>
       </c>
       <c r="K44">
-        <v>-334.2324866262838</v>
+        <v>3984089.840372993</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,22 +1988,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>35.15741772935191</v>
+        <v>1116401.522194213</v>
       </c>
       <c r="G45">
-        <v>537.0926224330178</v>
+        <v>4841717.381926118</v>
       </c>
       <c r="H45">
-        <v>2255.760545463141</v>
+        <v>3986285.930430286</v>
       </c>
       <c r="I45">
-        <v>370.0762906186529</v>
+        <v>1117082.501422359</v>
       </c>
       <c r="J45">
-        <v>-123.6649981222415</v>
+        <v>4841130.042343549</v>
       </c>
       <c r="K45">
-        <v>-726.0818294700099</v>
+        <v>3983757.392357741</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,22 +2023,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>34.67923765834275</v>
+        <v>1116400.964403298</v>
       </c>
       <c r="G46">
-        <v>555.0291331665293</v>
+        <v>4841733.894739725</v>
       </c>
       <c r="H46">
-        <v>2265.417751300509</v>
+        <v>3986294.136507417</v>
       </c>
       <c r="I46">
-        <v>413.3763026261528</v>
+        <v>1117166.790889499</v>
       </c>
       <c r="J46">
-        <v>-189.0487201902639</v>
+        <v>4841081.390767514</v>
       </c>
       <c r="K46">
-        <v>-1135.786587499573</v>
+        <v>3983409.795670052</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,22 +2058,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>34.22004843973824</v>
+        <v>1116400.428764967</v>
       </c>
       <c r="G47">
-        <v>572.9656439000406</v>
+        <v>4841750.407553333</v>
       </c>
       <c r="H47">
-        <v>2274.817816063819</v>
+        <v>3986302.124082477</v>
       </c>
       <c r="I47">
-        <v>457.7425375940568</v>
+        <v>1117253.155907223</v>
       </c>
       <c r="J47">
-        <v>-254.4324422582863</v>
+        <v>4841032.739191479</v>
       </c>
       <c r="K47">
-        <v>-1563.346760714972</v>
+        <v>3983047.050309923</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,22 +2093,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.77862569814427</v>
+        <v>1116399.913851004</v>
       </c>
       <c r="G48">
-        <v>590.902154633552</v>
+        <v>4841766.920366941</v>
       </c>
       <c r="H48">
-        <v>2283.974079055933</v>
+        <v>3986309.904490352</v>
       </c>
       <c r="I48">
-        <v>503.2012502818573</v>
+        <v>1117341.647584053</v>
       </c>
       <c r="J48">
-        <v>-319.816164326308</v>
+        <v>4840984.087615443</v>
       </c>
       <c r="K48">
-        <v>-2008.762349116204</v>
+        <v>3982669.156277356</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,22 +2128,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>33.35385277316266</v>
+        <v>1116399.418358839</v>
       </c>
       <c r="G49">
-        <v>608.8386653670634</v>
+        <v>4841783.433180547</v>
       </c>
       <c r="H49">
-        <v>2292.898867794797</v>
+        <v>3986317.488206181</v>
       </c>
       <c r="I49">
-        <v>549.7793419483467</v>
+        <v>1117432.318287015</v>
       </c>
       <c r="J49">
-        <v>-385.1998863943304</v>
+        <v>4840935.436039409</v>
       </c>
       <c r="K49">
-        <v>-2472.033352703275</v>
+        <v>3982276.11357235</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,22 +2163,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.94470883640216</v>
+        <v>1116398.941097687</v>
       </c>
       <c r="G50">
-        <v>626.7751761005746</v>
+        <v>4841799.945994155</v>
       </c>
       <c r="H50">
-        <v>2301.603597820237</v>
+        <v>3986324.884930161</v>
       </c>
       <c r="I50">
-        <v>597.5043762710644</v>
+        <v>1117525.221672621</v>
       </c>
       <c r="J50">
-        <v>-450.5836084623527</v>
+        <v>4840886.784463373</v>
       </c>
       <c r="K50">
-        <v>-2953.159771476184</v>
+        <v>3981867.922194906</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,22 +2198,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>32.55025857212305</v>
+        <v>1116398.480976516</v>
       </c>
       <c r="G51">
-        <v>644.711686834086</v>
+        <v>4841816.458807763</v>
       </c>
       <c r="H51">
-        <v>2310.098860489654</v>
+        <v>3986332.103662152</v>
       </c>
       <c r="I51">
-        <v>646.4045956577526</v>
+        <v>1117620.412718629</v>
       </c>
       <c r="J51">
-        <v>-515.9673305303752</v>
+        <v>4840838.132887337</v>
       </c>
       <c r="K51">
-        <v>-3452.141605434928</v>
+        <v>3981444.582145023</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,22 +2233,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>32.1696431840744</v>
+        <v>1116398.036993551</v>
       </c>
       <c r="G52">
-        <v>662.6481975675974</v>
+        <v>4841832.97162137</v>
       </c>
       <c r="H52">
-        <v>2318.394500456483</v>
+        <v>3986339.152767511</v>
       </c>
       <c r="I52">
-        <v>696.5089379594615</v>
+        <v>1117717.94775657</v>
       </c>
       <c r="J52">
-        <v>-581.3510525983975</v>
+        <v>4840789.481311303</v>
       </c>
       <c r="K52">
-        <v>-3968.978854579509</v>
+        <v>3981006.093422701</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,22 +2268,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.80207253172729</v>
+        <v>1116397.608227102</v>
       </c>
       <c r="G53">
-        <v>680.5847083011088</v>
+        <v>4841849.484434977</v>
       </c>
       <c r="H53">
-        <v>2326.499684252972</v>
+        <v>3986346.040035373</v>
       </c>
       <c r="I53">
-        <v>747.8470535951991</v>
+        <v>1117817.88450509</v>
       </c>
       <c r="J53">
-        <v>-646.7347746664193</v>
+        <v>4840740.829735267</v>
       </c>
       <c r="K53">
-        <v>-4503.671518909922</v>
+        <v>3980552.456027941</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,22 +2303,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.44681823204832</v>
+        <v>1116397.193827521</v>
       </c>
       <c r="G54">
-        <v>698.5212190346201</v>
+        <v>4841865.997248585</v>
       </c>
       <c r="H54">
-        <v>2334.422961175446</v>
+        <v>3986352.772730384</v>
       </c>
       <c r="I54">
-        <v>800.4493230982673</v>
+        <v>1117920.282104102</v>
       </c>
       <c r="J54">
-        <v>-712.1184967344417</v>
+        <v>4840692.178159231</v>
       </c>
       <c r="K54">
-        <v>-5056.219598426175</v>
+        <v>3980083.669960743</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,22 +2338,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G55">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H55">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I55">
-        <v>-1652.813385347836</v>
+        <v>1114861.374378413</v>
       </c>
       <c r="J55">
-        <v>1013.49787064742</v>
+        <v>4843222.380246486</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.393878277</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,22 +2373,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G56">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H56">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I56">
-        <v>-1620.182448113191</v>
+        <v>1114890.988375327</v>
       </c>
       <c r="J56">
-        <v>988.8437301073772</v>
+        <v>4843173.728667235</v>
       </c>
       <c r="K56">
-        <v>350.6030936743794</v>
+        <v>3984672.189723304</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,22 +2408,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G57">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H57">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I57">
-        <v>-1586.748004069055</v>
+        <v>1114921.331589671</v>
       </c>
       <c r="J57">
-        <v>964.1895895673345</v>
+        <v>4843125.077087983</v>
       </c>
       <c r="K57">
-        <v>683.7235099912676</v>
+        <v>3984960.836914947</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,22 +2443,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G58">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H58">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I58">
-        <v>-1552.490267599457</v>
+        <v>1114952.421977753</v>
       </c>
       <c r="J58">
-        <v>939.5354490272915</v>
+        <v>4843076.425508732</v>
       </c>
       <c r="K58">
-        <v>999.3612489506672</v>
+        <v>3985234.335453206</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,22 +2478,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G59">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H59">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I59">
-        <v>-1517.388965885835</v>
+        <v>1114984.277938038</v>
       </c>
       <c r="J59">
-        <v>914.8813084872488</v>
+        <v>4843027.773929481</v>
       </c>
       <c r="K59">
-        <v>1297.516310552576</v>
+        <v>3985492.685338083</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,22 +2513,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G60">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H60">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I60">
-        <v>-1481.423326910119</v>
+        <v>1115016.918322039</v>
       </c>
       <c r="J60">
-        <v>890.2271679472059</v>
+        <v>4842979.12235023</v>
       </c>
       <c r="K60">
-        <v>1578.188694796997</v>
+        <v>3985735.886569576</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,22 +2548,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G61">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H61">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I61">
-        <v>-1444.572067162408</v>
+        <v>1115050.362445467</v>
       </c>
       <c r="J61">
-        <v>865.5730274071631</v>
+        <v>4842930.470770978</v>
       </c>
       <c r="K61">
-        <v>1841.378401683928</v>
+        <v>3985963.939147687</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,22 +2583,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G62">
-        <v>-153.5980540684832</v>
+        <v>4841115.69668607</v>
       </c>
       <c r="H62">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I62">
-        <v>-1406.813379045947</v>
+        <v>1115084.630099667</v>
       </c>
       <c r="J62">
-        <v>840.9188868671202</v>
+        <v>4842881.819191728</v>
       </c>
       <c r="K62">
-        <v>2087.085431213369</v>
+        <v>3986176.843072414</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,22 +2618,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>318.2042811518893</v>
+        <v>1116579.294738032</v>
       </c>
       <c r="G63">
-        <v>-128.2346918409955</v>
+        <v>4841132.209475038</v>
       </c>
       <c r="H63">
-        <v>987.0820639451798</v>
+        <v>3985227.2565157</v>
       </c>
       <c r="I63">
-        <v>-1368.124917971974</v>
+        <v>1115119.741563325</v>
       </c>
       <c r="J63">
-        <v>816.2647463270774</v>
+        <v>4842833.167612476</v>
       </c>
       <c r="K63">
-        <v>2315.309783385319</v>
+        <v>3986374.598343757</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,22 +2653,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>246.963642758434</v>
+        <v>1116530.614139781</v>
       </c>
       <c r="G64">
-        <v>-102.8713296135077</v>
+        <v>4841148.722264004</v>
       </c>
       <c r="H64">
-        <v>1216.078460650158</v>
+        <v>3985426.510868885</v>
       </c>
       <c r="I64">
-        <v>-1328.483789136786</v>
+        <v>1115155.717614474</v>
       </c>
       <c r="J64">
-        <v>791.6106057870347</v>
+        <v>4842784.516033226</v>
       </c>
       <c r="K64">
-        <v>2526.05145819978</v>
+        <v>3986557.204961719</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,22 +2688,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>205.1133415184878</v>
+        <v>1116502.016730391</v>
       </c>
       <c r="G65">
-        <v>-77.50796738602</v>
+        <v>4841165.235052971</v>
       </c>
       <c r="H65">
-        <v>1352.480425847982</v>
+        <v>3985545.196951896</v>
       </c>
       <c r="I65">
-        <v>-1287.866533973202</v>
+        <v>1115192.579542786</v>
       </c>
       <c r="J65">
-        <v>766.9564652469918</v>
+        <v>4842735.864453974</v>
       </c>
       <c r="K65">
-        <v>2719.310455656752</v>
+        <v>3986724.662926296</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,22 +2723,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>178.6943610823926</v>
+        <v>1116483.963947572</v>
       </c>
       <c r="G66">
-        <v>-52.14460515853226</v>
+        <v>4841181.747841938</v>
       </c>
       <c r="H66">
-        <v>1449.957691318476</v>
+        <v>3985630.013873739</v>
       </c>
       <c r="I66">
-        <v>-1246.249116268403</v>
+        <v>1115230.349162169</v>
       </c>
       <c r="J66">
-        <v>742.302324706949</v>
+        <v>4842687.212874723</v>
       </c>
       <c r="K66">
-        <v>2895.086775756235</v>
+        <v>3986876.97223749</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,22 +2758,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>160.2698713671973</v>
+        <v>1116471.374010115</v>
       </c>
       <c r="G67">
-        <v>-26.7812429310445</v>
+        <v>4841198.260630905</v>
       </c>
       <c r="H67">
-        <v>1525.863185716867</v>
+        <v>3985696.060765336</v>
       </c>
       <c r="I67">
-        <v>-1203.606907939946</v>
+        <v>1115269.048823683</v>
       </c>
       <c r="J67">
-        <v>717.6481841669062</v>
+        <v>4842638.561295472</v>
       </c>
       <c r="K67">
-        <v>3053.380418498227</v>
+        <v>3987014.132895302</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,22 +2793,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>146.5246502891477</v>
+        <v>1116461.981539746</v>
       </c>
       <c r="G68">
-        <v>-1.417880703556775</v>
+        <v>4841214.773419872</v>
       </c>
       <c r="H68">
-        <v>1588.035673395974</v>
+        <v>3985750.158292619</v>
       </c>
       <c r="I68">
-        <v>-1159.914674461513</v>
+        <v>1115308.701428758</v>
       </c>
       <c r="J68">
-        <v>692.9940436268633</v>
+        <v>4842589.909716222</v>
       </c>
       <c r="K68">
-        <v>3194.191383882729</v>
+        <v>3987136.14489973</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,22 +2828,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>135.7778068693305</v>
+        <v>1116454.637939537</v>
       </c>
       <c r="G69">
-        <v>23.94548152393098</v>
+        <v>4841231.286208838</v>
       </c>
       <c r="H69">
-        <v>1640.691232088541</v>
+        <v>3985795.974949299</v>
       </c>
       <c r="I69">
-        <v>-1115.146559929792</v>
+        <v>1115349.330442754</v>
       </c>
       <c r="J69">
-        <v>668.3399030868205</v>
+        <v>4842541.258136969</v>
       </c>
       <c r="K69">
-        <v>3317.519671909743</v>
+        <v>3987243.008250775</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,22 +2863,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>127.0828280393707</v>
+        <v>1116448.696432263</v>
       </c>
       <c r="G70">
-        <v>49.30884375141873</v>
+        <v>4841247.798997805</v>
       </c>
       <c r="H70">
-        <v>1686.360339247913</v>
+        <v>3985835.712554513</v>
       </c>
       <c r="I70">
-        <v>-1069.276071763637</v>
+        <v>1115390.959908841</v>
       </c>
       <c r="J70">
-        <v>643.6857625467777</v>
+        <v>4842492.606557718</v>
       </c>
       <c r="K70">
-        <v>3423.365282579266</v>
+        <v>3987334.722948437</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,22 +2898,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>119.8628974159826</v>
+        <v>1116443.762864148</v>
       </c>
       <c r="G71">
-        <v>74.67220597890646</v>
+        <v>4841264.311786773</v>
       </c>
       <c r="H71">
-        <v>1726.681641742578</v>
+        <v>3985870.796927733</v>
       </c>
       <c r="I71">
-        <v>-1022.276065026466</v>
+        <v>1115433.614462232</v>
       </c>
       <c r="J71">
-        <v>619.0316220067349</v>
+        <v>4842443.954978467</v>
       </c>
       <c r="K71">
-        <v>3511.7282158913</v>
+        <v>3987411.288992716</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,22 +2933,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>113.7445494449437</v>
+        <v>1116439.582036375</v>
       </c>
       <c r="G72">
-        <v>100.0355682063942</v>
+        <v>4841280.824575739</v>
       </c>
       <c r="H72">
-        <v>1762.777321285795</v>
+        <v>3985902.204501755</v>
       </c>
       <c r="I72">
-        <v>-974.1187263626049</v>
+        <v>1115477.319344759</v>
       </c>
       <c r="J72">
-        <v>594.3774814666921</v>
+        <v>4842395.303399216</v>
       </c>
       <c r="K72">
-        <v>3582.608471845844</v>
+        <v>3987472.706383611</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,22 +2968,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>108.4741895761627</v>
+        <v>1116435.980661132</v>
       </c>
       <c r="G73">
-        <v>125.398930433882</v>
+        <v>4841297.337364706</v>
       </c>
       <c r="H73">
-        <v>1795.449644079139</v>
+        <v>3985930.633344473</v>
       </c>
       <c r="I73">
-        <v>-924.7755575380856</v>
+        <v>1115522.100419811</v>
       </c>
       <c r="J73">
-        <v>569.7233409266493</v>
+        <v>4842346.651819965</v>
       </c>
       <c r="K73">
-        <v>3636.006050442898</v>
+        <v>3987518.975121123</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,22 +3003,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>103.8728930820817</v>
+        <v>1116432.836474456</v>
       </c>
       <c r="G74">
-        <v>150.7622926613697</v>
+        <v>4841313.850153673</v>
       </c>
       <c r="H74">
-        <v>1825.292080354825</v>
+        <v>3985956.599846232</v>
       </c>
       <c r="I74">
-        <v>-874.2173585761458</v>
+        <v>1115567.984187637</v>
       </c>
       <c r="J74">
-        <v>545.0692003866064</v>
+        <v>4842298.000240713</v>
       </c>
       <c r="K74">
-        <v>3671.920951682463</v>
+        <v>3987550.095205253</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,22 +3038,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>99.8103831675451</v>
+        <v>1116430.060454792</v>
       </c>
       <c r="G75">
-        <v>176.1256548888575</v>
+        <v>4841330.36294264</v>
       </c>
       <c r="H75">
-        <v>1852.756009974087</v>
+        <v>3985980.496761689</v>
       </c>
       <c r="I75">
-        <v>-822.414210477458</v>
+        <v>1115614.997801034</v>
       </c>
       <c r="J75">
-        <v>520.4150598465636</v>
+        <v>4842249.348661463</v>
       </c>
       <c r="K75">
-        <v>3690.353175564539</v>
+        <v>3987566.066635999</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,22 +3073,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>96.18927745265374</v>
+        <v>1116427.586058205</v>
       </c>
       <c r="G76">
-        <v>201.4890171163452</v>
+        <v>4841346.875731607</v>
       </c>
       <c r="H76">
-        <v>1878.192748507476</v>
+        <v>3986002.629777564</v>
       </c>
       <c r="I76">
-        <v>-769.3354575148625</v>
+        <v>1115663.16908141</v>
       </c>
       <c r="J76">
-        <v>495.7609193065208</v>
+        <v>4842200.697082212</v>
       </c>
       <c r="K76">
-        <v>3691.302722089124</v>
+        <v>3987566.889413361</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,22 +3108,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>92.93514209022189</v>
+        <v>1116425.362422092</v>
       </c>
       <c r="G77">
-        <v>226.852379343833</v>
+        <v>4841363.388520574</v>
       </c>
       <c r="H77">
-        <v>1901.881099873481</v>
+        <v>3986023.241486732</v>
       </c>
       <c r="I77">
-        <v>-714.9496890921205</v>
+        <v>1115712.526535248</v>
       </c>
       <c r="J77">
-        <v>471.1067787664779</v>
+        <v>4842152.04550296</v>
       </c>
       <c r="K77">
-        <v>3674.769591256219</v>
+        <v>3987552.563537341</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,22 +3143,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>89.98998546510175</v>
+        <v>1116423.349919261</v>
       </c>
       <c r="G78">
-        <v>252.2157415713207</v>
+        <v>4841379.90130954</v>
       </c>
       <c r="H78">
-        <v>1924.046033444791</v>
+        <v>3986042.527639553</v>
       </c>
       <c r="I78">
-        <v>-659.2247211559575</v>
+        <v>1115763.099370978</v>
       </c>
       <c r="J78">
-        <v>446.4526382264352</v>
+        <v>4842103.393923709</v>
       </c>
       <c r="K78">
-        <v>3640.753783065826</v>
+        <v>3987523.089007937</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,22 +3178,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>87.30787043388938</v>
+        <v>1116421.517159655</v>
       </c>
       <c r="G79">
-        <v>277.5791037988085</v>
+        <v>4841396.414098508</v>
       </c>
       <c r="H79">
-        <v>1944.871709825253</v>
+        <v>3986060.648477856</v>
       </c>
       <c r="I79">
-        <v>-602.1275771503973</v>
+        <v>1115814.917516263</v>
       </c>
       <c r="J79">
-        <v>421.7984976863924</v>
+        <v>4842054.742344459</v>
       </c>
       <c r="K79">
-        <v>3589.255297517942</v>
+        <v>3987478.465825151</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,22 +3213,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>84.85187622292865</v>
+        <v>1116419.838914342</v>
       </c>
       <c r="G80">
-        <v>302.9424660262961</v>
+        <v>4841412.926887475</v>
       </c>
       <c r="H80">
-        <v>1964.510790704215</v>
+        <v>3986077.736835638</v>
       </c>
       <c r="I80">
-        <v>-543.6244685021095</v>
+        <v>1115868.011635702</v>
       </c>
       <c r="J80">
-        <v>397.1443571463495</v>
+        <v>4842006.090765206</v>
       </c>
       <c r="K80">
-        <v>3520.274134612569</v>
+        <v>3987418.693988981</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,22 +3248,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>82.59194576368799</v>
+        <v>1116418.294644537</v>
       </c>
       <c r="G81">
-        <v>328.3058282537839</v>
+        <v>4841429.439676442</v>
       </c>
       <c r="H81">
-        <v>1983.091236487161</v>
+        <v>3986093.904053811</v>
       </c>
       <c r="I81">
-        <v>-483.680774625231</v>
+        <v>1115922.413148988</v>
       </c>
       <c r="J81">
-        <v>372.4902166063067</v>
+        <v>4841957.439185956</v>
       </c>
       <c r="K81">
-        <v>3433.810294349707</v>
+        <v>3987343.773499428</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,22 +3283,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>80.503329072944</v>
+        <v>1116416.867437927</v>
       </c>
       <c r="G82">
-        <v>353.6691904812717</v>
+        <v>4841445.952465409</v>
       </c>
       <c r="H82">
-        <v>2000.721363709619</v>
+        <v>3986109.244380763</v>
       </c>
       <c r="I82">
-        <v>-422.2610224338208</v>
+        <v>1115978.15424949</v>
       </c>
       <c r="J82">
-        <v>347.8360760662638</v>
+        <v>4841908.787606705</v>
       </c>
       <c r="K82">
-        <v>3329.863776729354</v>
+        <v>3987253.704356492</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,22 +3318,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>78.56543711725161</v>
+        <v>1116415.543225485</v>
       </c>
       <c r="G83">
-        <v>379.0325527087594</v>
+        <v>4841462.465254376</v>
       </c>
       <c r="H83">
-        <v>2017.493670897148</v>
+        <v>3986123.838301315</v>
       </c>
       <c r="I83">
-        <v>-359.3288653498332</v>
+        <v>1116035.267923311</v>
       </c>
       <c r="J83">
-        <v>323.181935526221</v>
+        <v>4841860.136027453</v>
       </c>
       <c r="K83">
-        <v>3208.434581751511</v>
+        <v>3987148.486560173</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,22 +3353,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>76.7609841677569</v>
+        <v>1116414.310195419</v>
       </c>
       <c r="G84">
-        <v>404.3959149362472</v>
+        <v>4841478.978043343</v>
       </c>
       <c r="H84">
-        <v>2033.487776100976</v>
+        <v>3986137.755092727</v>
       </c>
       <c r="I84">
-        <v>-294.8470617941755</v>
+        <v>1116093.787968806</v>
       </c>
       <c r="J84">
-        <v>298.5277949861783</v>
+        <v>4841811.484448202</v>
       </c>
       <c r="K84">
-        <v>3069.52270941618</v>
+        <v>3987028.120110471</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,22 +3388,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>75.07533663176326</v>
+        <v>1116413.15834821</v>
       </c>
       <c r="G85">
-        <v>429.7592771637349</v>
+        <v>4841495.49083231</v>
       </c>
       <c r="H85">
-        <v>2048.7727026755</v>
+        <v>3986151.054813604</v>
       </c>
       <c r="I85">
-        <v>-228.7774531481313</v>
+        <v>1116153.749016584</v>
       </c>
       <c r="J85">
-        <v>273.8736544461354</v>
+        <v>4841762.83286895</v>
       </c>
       <c r="K85">
-        <v>2913.128159723358</v>
+        <v>3986892.605007385</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,22 +3423,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>73.49601210812831</v>
+        <v>1116412.079154306</v>
       </c>
       <c r="G86">
-        <v>455.1226393912226</v>
+        <v>4841512.003621276</v>
       </c>
       <c r="H86">
-        <v>2063.408679478042</v>
+        <v>3986163.789870282</v>
       </c>
       <c r="I86">
-        <v>-161.0809411721033</v>
+        <v>1116215.18655</v>
       </c>
       <c r="J86">
-        <v>249.2195139060926</v>
+        <v>4841714.1812897</v>
       </c>
       <c r="K86">
-        <v>2739.250932673047</v>
+        <v>3986741.941250916</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,22 +3458,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>72.01228937706546</v>
+        <v>1116411.065287617</v>
       </c>
       <c r="G87">
-        <v>480.4860016187104</v>
+        <v>4841528.516410244</v>
       </c>
       <c r="H87">
-        <v>2077.448574246464</v>
+        <v>3986176.006264038</v>
       </c>
       <c r="I87">
-        <v>-91.71746486831452</v>
+        <v>1116278.136926155</v>
       </c>
       <c r="J87">
-        <v>224.5653733660498</v>
+        <v>4841665.529710449</v>
       </c>
       <c r="K87">
-        <v>2547.891028265246</v>
+        <v>3986576.128841064</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,22 +3493,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>70.61490142764644</v>
+        <v>1116410.11041575</v>
       </c>
       <c r="G88">
-        <v>505.8493638461982</v>
+        <v>4841545.02919921</v>
       </c>
       <c r="H88">
-        <v>2090.939046349012</v>
+        <v>3986187.744594123</v>
       </c>
       <c r="I88">
-        <v>-20.64597677377336</v>
+        <v>1116342.63739741</v>
       </c>
       <c r="J88">
-        <v>199.9112328260069</v>
+        <v>4841616.878131197</v>
       </c>
       <c r="K88">
-        <v>2339.048446499956</v>
+        <v>3986395.167777829</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,22 +3528,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>69.2957914159272</v>
+        <v>1116409.209033253</v>
       </c>
       <c r="G89">
-        <v>531.2127260736859</v>
+        <v>4841561.541988177</v>
       </c>
       <c r="H89">
-        <v>2103.921482359436</v>
+        <v>3986199.040871826</v>
       </c>
       <c r="I89">
-        <v>52.17558133052596</v>
+        <v>1116408.726133429</v>
       </c>
       <c r="J89">
-        <v>175.2570922859641</v>
+        <v>4841568.226551946</v>
       </c>
       <c r="K89">
-        <v>2112.723187377176</v>
+        <v>3986199.058061211</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,22 +3563,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>68.04791686058778</v>
+        <v>1116408.356327813</v>
       </c>
       <c r="G90">
-        <v>556.5760883011736</v>
+        <v>4841578.054777144</v>
       </c>
       <c r="H90">
-        <v>2116.432761777836</v>
+        <v>3986209.927186737</v>
       </c>
       <c r="I90">
-        <v>126.7903033085385</v>
+        <v>1116476.442243773</v>
       </c>
       <c r="J90">
-        <v>150.6029517459213</v>
+        <v>4841519.574972696</v>
       </c>
       <c r="K90">
-        <v>1868.915250896906</v>
+        <v>3985987.79969121</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,22 +3598,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>66.86509120266187</v>
+        <v>1116407.548071993</v>
       </c>
       <c r="G91">
-        <v>581.9394505286614</v>
+        <v>4841594.567566111</v>
       </c>
       <c r="H91">
-        <v>2128.505888608912</v>
+        <v>3986220.432256302</v>
       </c>
       <c r="I91">
-        <v>203.2423441709748</v>
+        <v>1116545.825801037</v>
       </c>
       <c r="J91">
-        <v>125.9488112058786</v>
+        <v>4841470.923393444</v>
       </c>
       <c r="K91">
-        <v>1607.624637059148</v>
+        <v>3985761.392667825</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,22 +3633,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>65.74185458832626</v>
+        <v>1116406.780534929</v>
       </c>
       <c r="G92">
-        <v>607.3028127561491</v>
+        <v>4841611.080355078</v>
       </c>
       <c r="H92">
-        <v>2140.170516045302</v>
+        <v>3986230.581882359</v>
       </c>
       <c r="I92">
-        <v>281.5769462050599</v>
+        <v>1116616.917864566</v>
       </c>
       <c r="J92">
-        <v>101.2946706658357</v>
+        <v>4841422.271814193</v>
       </c>
       <c r="K92">
-        <v>1328.851345863897</v>
+        <v>3985519.836991057</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,22 +3668,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>64.67336771340263</v>
+        <v>1116406.0504098</v>
       </c>
       <c r="G93">
-        <v>632.6661749836369</v>
+        <v>4841627.593144045</v>
       </c>
       <c r="H93">
-        <v>2151.453385257455</v>
+        <v>3986240.399332936</v>
       </c>
       <c r="I93">
-        <v>361.8404657477225</v>
+        <v>1116689.760504757</v>
       </c>
       <c r="J93">
-        <v>76.64053012579282</v>
+        <v>4841373.620234942</v>
       </c>
       <c r="K93">
-        <v>1032.595377311159</v>
+        <v>3985263.132660907</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,22 +3703,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>63.65532401960382</v>
+        <v>1116405.354753821</v>
       </c>
       <c r="G94">
-        <v>658.0295372111246</v>
+        <v>4841644.105933012</v>
       </c>
       <c r="H94">
-        <v>2162.378694629933</v>
+        <v>3986249.905663532</v>
       </c>
       <c r="I94">
-        <v>444.080400618038</v>
+        <v>1116764.396827947</v>
       </c>
       <c r="J94">
-        <v>51.98638958575008</v>
+        <v>4841324.968655691</v>
       </c>
       <c r="K94">
-        <v>718.8567314009307</v>
+        <v>3984991.279677373</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,22 +3738,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>62.68387660837341</v>
+        <v>1116404.690938305</v>
       </c>
       <c r="G95">
-        <v>683.3928994386123</v>
+        <v>4841660.618721979</v>
       </c>
       <c r="H95">
-        <v>2172.968412268717</v>
+        <v>3986259.119989037</v>
       </c>
       <c r="I95">
-        <v>528.3454182251841</v>
+        <v>1116840.871001933</v>
       </c>
       <c r="J95">
-        <v>27.33224904570721</v>
+        <v>4841276.31707644</v>
       </c>
       <c r="K95">
-        <v>387.6354081332121</v>
+        <v>3984704.278040455</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,22 +3773,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>61.75557704378134</v>
+        <v>1116404.056606845</v>
       </c>
       <c r="G96">
-        <v>708.7562616661002</v>
+        <v>4841677.131510946</v>
       </c>
       <c r="H96">
-        <v>2183.24254192739</v>
+        <v>3986268.059715116</v>
       </c>
       <c r="I96">
-        <v>614.6853843685107</v>
+        <v>1116919.228282098</v>
       </c>
       <c r="J96">
-        <v>2.678108505664346</v>
+        <v>4841227.665497188</v>
       </c>
       <c r="K96">
-        <v>38.93140750800414</v>
+        <v>3984402.127750156</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,22 +3808,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>60.86732382502178</v>
+        <v>1116403.449640104</v>
       </c>
       <c r="G97">
-        <v>734.1196238935878</v>
+        <v>4841693.644299912</v>
       </c>
       <c r="H97">
-        <v>2193.219350443419</v>
+        <v>3986276.740736111</v>
       </c>
       <c r="I97">
-        <v>703.1513927468036</v>
+        <v>1116999.515038199</v>
       </c>
       <c r="J97">
-        <v>-21.9760320343784</v>
+        <v>4841179.013917937</v>
       </c>
       <c r="K97">
-        <v>-327.2552704746925</v>
+        <v>3984084.828806472</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,22 +3843,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>60.01631877367638</v>
+        <v>1116402.868126014</v>
       </c>
       <c r="G98">
-        <v>759.4829861210756</v>
+        <v>4841710.157088879</v>
       </c>
       <c r="H98">
-        <v>2202.915563182073</v>
+        <v>3986285.177605099</v>
       </c>
       <c r="I98">
-        <v>793.7957951941771</v>
+        <v>1117081.778781807</v>
       </c>
       <c r="J98">
-        <v>-46.63017257442127</v>
+        <v>4841130.362338686</v>
       </c>
       <c r="K98">
-        <v>-710.9246258148798</v>
+        <v>3983752.381209405</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,22 +3878,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>59.2000299383065</v>
+        <v>1116402.310334426</v>
       </c>
       <c r="G99">
-        <v>784.8463483485634</v>
+        <v>4841726.669877846</v>
       </c>
       <c r="H99">
-        <v>2212.346532740778</v>
+        <v>3986293.38368068</v>
       </c>
       <c r="I99">
-        <v>886.6722326604967</v>
+        <v>1117166.06819442</v>
       </c>
       <c r="J99">
-        <v>-71.28431311446413</v>
+        <v>4841081.710759435</v>
       </c>
       <c r="K99">
-        <v>-1112.076658512558</v>
+        <v>3983404.784958955</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,22 +3913,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>58.41615989604809</v>
+        <v>1116401.77469545</v>
       </c>
       <c r="G100">
-        <v>810.2097105760511</v>
+        <v>4841743.182666813</v>
       </c>
       <c r="H100">
-        <v>2221.52638518729</v>
+        <v>3986301.371254231</v>
       </c>
       <c r="I100">
-        <v>981.8356669546685</v>
+        <v>1117252.433156274</v>
       </c>
       <c r="J100">
-        <v>-95.938453654507</v>
+        <v>4841033.059180183</v>
       </c>
       <c r="K100">
-        <v>-1530.711368567725</v>
+        <v>3983042.040055123</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,22 +3948,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>57.66261854732338</v>
+        <v>1116401.259780866</v>
       </c>
       <c r="G101">
-        <v>835.5730728035387</v>
+        <v>4841759.69545578</v>
       </c>
       <c r="H101">
-        <v>2230.46814732888</v>
+        <v>3986309.151660637</v>
       </c>
       <c r="I101">
-        <v>1079.342413269579</v>
+        <v>1117340.924775859</v>
       </c>
       <c r="J101">
-        <v>-120.5925941945496</v>
+        <v>4840984.407600933</v>
       </c>
       <c r="K101">
-        <v>-1966.828755980378</v>
+        <v>3982664.146497906</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,22 +3983,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>56.93749967003907</v>
+        <v>1116400.764288103</v>
       </c>
       <c r="G102">
-        <v>860.9364350310266</v>
+        <v>4841776.208244747</v>
       </c>
       <c r="H102">
-        <v>2239.183857890668</v>
+        <v>3986316.735375034</v>
       </c>
       <c r="I102">
-        <v>1179.250173507935</v>
+        <v>1117431.595420166</v>
       </c>
       <c r="J102">
-        <v>-145.2467347345925</v>
+        <v>4840935.756021681</v>
       </c>
       <c r="K102">
-        <v>-2420.428820750524</v>
+        <v>3982271.104287307</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,22 +4018,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>56.23906063444305</v>
+        <v>1116400.287026376</v>
       </c>
       <c r="G103">
-        <v>886.2997972585143</v>
+        <v>4841792.721033714</v>
       </c>
       <c r="H103">
-        <v>2247.68466498427</v>
+        <v>3986324.132097617</v>
       </c>
       <c r="I103">
-        <v>1281.618070428704</v>
+        <v>1117524.498745673</v>
       </c>
       <c r="J103">
-        <v>-169.9008752746354</v>
+        <v>4840887.10444243</v>
       </c>
       <c r="K103">
-        <v>-2891.51156287816</v>
+        <v>3981862.913423324</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,22 +4053,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>55.56570478721961</v>
+        <v>1116399.826904651</v>
       </c>
       <c r="G104">
-        <v>911.663159486002</v>
+        <v>4841809.233822681</v>
       </c>
       <c r="H104">
-        <v>2255.980911846737</v>
+        <v>3986331.350828244</v>
       </c>
       <c r="I104">
-        <v>1386.50668263441</v>
+        <v>1117619.689730102</v>
       </c>
       <c r="J104">
-        <v>-194.5550158146782</v>
+        <v>4840838.452863179</v>
       </c>
       <c r="K104">
-        <v>-3380.076982363286</v>
+        <v>3981439.573905959</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,22 +4088,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>54.91596609949389</v>
+        <v>1116399.38292115</v>
       </c>
       <c r="G105">
-        <v>937.0265217134898</v>
+        <v>4841825.746611647</v>
       </c>
       <c r="H105">
-        <v>2264.082212503954</v>
+        <v>3986338.399932273</v>
       </c>
       <c r="I105">
-        <v>1493.978080419928</v>
+        <v>1117717.224704948</v>
       </c>
       <c r="J105">
-        <v>-219.2091563547211</v>
+        <v>4840789.801283928</v>
       </c>
       <c r="K105">
-        <v>-3886.125079205901</v>
+        <v>3981001.08573521</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,22 +4123,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>54.28849574279886</v>
+        <v>1116398.954154185</v>
       </c>
       <c r="G106">
-        <v>962.3898839409775</v>
+        <v>4841842.259400615</v>
       </c>
       <c r="H106">
-        <v>2271.997518746741</v>
+        <v>3986345.287198834</v>
       </c>
       <c r="I106">
-        <v>1604.095862504039</v>
+        <v>1117817.161388818</v>
       </c>
       <c r="J106">
-        <v>-243.8632968947637</v>
+        <v>4840741.149704677</v>
       </c>
       <c r="K106">
-        <v>-4409.655853406002</v>
+        <v>3980547.448911078</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,22 +4158,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>53.68205031329133</v>
+        <v>1116398.539754103</v>
       </c>
       <c r="G107">
-        <v>987.7532461684652</v>
+        <v>4841858.772189582</v>
       </c>
       <c r="H107">
-        <v>2279.735179589788</v>
+        <v>3986352.019892573</v>
       </c>
       <c r="I107">
-        <v>1716.925193665471</v>
+        <v>1117919.55892159</v>
       </c>
       <c r="J107">
-        <v>-268.5174374348066</v>
+        <v>4840692.498125426</v>
       </c>
       <c r="K107">
-        <v>-4950.669304963597</v>
+        <v>3980078.663433563</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4193,22 +4193,22 @@
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G108">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H108">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I108">
-        <v>-1677.745260674363</v>
+        <v>1114860.338355448</v>
       </c>
       <c r="J108">
-        <v>2616.493847639177</v>
+        <v>4843224.886632891</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984379.173385632</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4228,22 +4228,22 @@
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G109">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H109">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I109">
-        <v>-1644.622101833738</v>
+        <v>1114889.952324843</v>
       </c>
       <c r="J109">
-        <v>2552.845556991416</v>
+        <v>4843176.235028462</v>
       </c>
       <c r="K109">
-        <v>303.5569444206533</v>
+        <v>3984682.970052563</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,22 +4263,22 @@
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G110">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H110">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I110">
-        <v>-1610.68331567941</v>
+        <v>1114920.295510989</v>
       </c>
       <c r="J110">
-        <v>2489.197266343655</v>
+        <v>4843127.583424034</v>
       </c>
       <c r="K110">
-        <v>591.9771481374125</v>
+        <v>3984971.618025126</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4298,22 +4298,22 @@
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G111">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H111">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I111">
-        <v>-1575.908818139142</v>
+        <v>1114951.385870179</v>
       </c>
       <c r="J111">
-        <v>2425.548975695895</v>
+        <v>4843078.931819606</v>
       </c>
       <c r="K111">
-        <v>865.2606111502799</v>
+        <v>3985245.117303322</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4333,22 +4333,22 @@
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G112">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H112">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I112">
-        <v>-1540.278030588896</v>
+        <v>1114983.241800861</v>
       </c>
       <c r="J112">
-        <v>2361.900685048134</v>
+        <v>4843030.280215177</v>
       </c>
       <c r="K112">
-        <v>1123.407333459254</v>
+        <v>3985503.467887152</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,22 +4368,22 @@
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G113">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H113">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I113">
-        <v>-1503.769867674949</v>
+        <v>1115015.88215453</v>
       </c>
       <c r="J113">
-        <v>2298.252394400373</v>
+        <v>4842981.628610749</v>
       </c>
       <c r="K113">
-        <v>1366.417315064336</v>
+        <v>3985746.669776614</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4403,22 +4403,22 @@
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G114">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H114">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I114">
-        <v>-1466.36272483614</v>
+        <v>1115049.326246879</v>
       </c>
       <c r="J114">
-        <v>2234.604103752612</v>
+        <v>4842932.97700632</v>
       </c>
       <c r="K114">
-        <v>1594.290555965525</v>
+        <v>3985974.722971709</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4438,22 +4438,22 @@
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G115">
-        <v>-59.90939119547621</v>
+        <v>4841125.519373626</v>
       </c>
       <c r="H115">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I115">
-        <v>-1428.034465518865</v>
+        <v>1115083.593869234</v>
       </c>
       <c r="J115">
-        <v>2170.955813104851</v>
+        <v>4842884.325401891</v>
       </c>
       <c r="K115">
-        <v>1807.027056162822</v>
+        <v>3986187.627472437</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4473,22 +4473,22 @@
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>233.4196084198439</v>
+        <v>1116577.919391567</v>
       </c>
       <c r="G116">
-        <v>-50.01666437068426</v>
+        <v>4841142.032196098</v>
       </c>
       <c r="H116">
-        <v>1315.678133127713</v>
+        <v>3985228.242109233</v>
       </c>
       <c r="I116">
-        <v>-1388.762408077255</v>
+        <v>1115118.705300264</v>
       </c>
       <c r="J116">
-        <v>2107.307522457091</v>
+        <v>4842835.673797463</v>
       </c>
       <c r="K116">
-        <v>2004.626815656225</v>
+        <v>3986385.383278797</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4508,22 +4508,22 @@
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>181.1608460386977</v>
+        <v>1116529.238853278</v>
       </c>
       <c r="G117">
-        <v>-40.12393754589231</v>
+        <v>4841158.545018569</v>
       </c>
       <c r="H117">
-        <v>1620.906606741749</v>
+        <v>3985427.496511695</v>
       </c>
       <c r="I117">
-        <v>-1348.523312350775</v>
+        <v>1115154.681317981</v>
       </c>
       <c r="J117">
-        <v>2043.65923180933</v>
+        <v>4842787.022193035</v>
       </c>
       <c r="K117">
-        <v>2187.089834445735</v>
+        <v>3986567.990390791</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4543,22 +4543,22 @@
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>150.4614447222903</v>
+        <v>1116500.641479113</v>
       </c>
       <c r="G118">
-        <v>-30.23121072110037</v>
+        <v>4841175.05784104</v>
       </c>
       <c r="H118">
-        <v>1802.716295603029</v>
+        <v>3985546.182624058</v>
       </c>
       <c r="I118">
-        <v>-1307.293365911321</v>
+        <v>1115191.543212037</v>
       </c>
       <c r="J118">
-        <v>1980.010941161569</v>
+        <v>4842738.370588605</v>
       </c>
       <c r="K118">
-        <v>2354.416112531353</v>
+        <v>3986735.448808418</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,22 +4578,22 @@
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>131.0817303893418</v>
+        <v>1116482.58871853</v>
       </c>
       <c r="G119">
-        <v>-20.33848389630842</v>
+        <v>4841191.570663513</v>
       </c>
       <c r="H119">
-        <v>1932.643392185079</v>
+        <v>3985630.999566877</v>
       </c>
       <c r="I119">
-        <v>-1265.048169971649</v>
+        <v>1115229.312796322</v>
       </c>
       <c r="J119">
-        <v>1916.362650513808</v>
+        <v>4842689.718984177</v>
       </c>
       <c r="K119">
-        <v>2506.605649913079</v>
+        <v>3986887.758531677</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,22 +4613,22 @@
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>117.5663962804223</v>
+        <v>1116469.998796581</v>
       </c>
       <c r="G120">
-        <v>-10.44575707151647</v>
+        <v>4841208.083485983</v>
       </c>
       <c r="H120">
-        <v>2033.817552685029</v>
+        <v>3985697.046474809</v>
       </c>
       <c r="I120">
-        <v>-1221.762724946831</v>
+        <v>1115268.012421873</v>
       </c>
       <c r="J120">
-        <v>1852.714359866047</v>
+        <v>4842641.067379748</v>
       </c>
       <c r="K120">
-        <v>2643.658446590911</v>
+        <v>3987024.91956057</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,22 +4648,22 @@
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>107.4835522970912</v>
+        <v>1116460.606337781</v>
       </c>
       <c r="G121">
-        <v>-0.5530302467245227</v>
+        <v>4841224.596308456</v>
       </c>
       <c r="H121">
-        <v>2116.687037917714</v>
+        <v>3985751.144015471</v>
       </c>
       <c r="I121">
-        <v>-1177.411415660156</v>
+        <v>1115307.664990099</v>
       </c>
       <c r="J121">
-        <v>1789.066069218287</v>
+        <v>4842592.41577532</v>
       </c>
       <c r="K121">
-        <v>2765.57450256485</v>
+        <v>3987146.931895095</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4683,22 +4683,22 @@
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>99.60017632954509</v>
+        <v>1116453.262746618</v>
       </c>
       <c r="G122">
-        <v>9.339696578067429</v>
+        <v>4841241.109130926</v>
       </c>
       <c r="H122">
-        <v>2186.871442730566</v>
+        <v>3985796.960683482</v>
       </c>
       <c r="I122">
-        <v>-1131.967996184753</v>
+        <v>1115348.293966339</v>
       </c>
       <c r="J122">
-        <v>1725.417778570526</v>
+        <v>4842543.764170892</v>
       </c>
       <c r="K122">
-        <v>2872.353817834897</v>
+        <v>3987253.795535254</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,22 +4718,22 @@
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>93.22195116437436</v>
+        <v>1116447.321246662</v>
       </c>
       <c r="G123">
-        <v>19.23242340285938</v>
+        <v>4841257.621953398</v>
       </c>
       <c r="H123">
-        <v>2247.743631420632</v>
+        <v>3985836.698298523</v>
       </c>
       <c r="I123">
-        <v>-1085.405574311947</v>
+        <v>1115389.923393741</v>
       </c>
       <c r="J123">
-        <v>1661.769487922765</v>
+        <v>4842495.112566463</v>
       </c>
       <c r="K123">
-        <v>2963.996392401051</v>
+        <v>3987345.510481045</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4753,22 +4753,22 @@
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>87.92575158833769</v>
+        <v>1116442.387684624</v>
       </c>
       <c r="G124">
-        <v>29.12515022765132</v>
+        <v>4841274.13477587</v>
       </c>
       <c r="H124">
-        <v>2301.487750505756</v>
+        <v>3985871.78268042</v>
       </c>
       <c r="I124">
-        <v>-1037.696595637167</v>
+        <v>1115432.577907494</v>
       </c>
       <c r="J124">
-        <v>1598.121197275004</v>
+        <v>4842446.460962035</v>
       </c>
       <c r="K124">
-        <v>3040.502226263313</v>
+        <v>3987422.076732469</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,22 +4788,22 @@
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>83.43762093715213</v>
+        <v>1116438.206862001</v>
       </c>
       <c r="G125">
-        <v>39.01787705244328</v>
+        <v>4841290.647598341</v>
       </c>
       <c r="H125">
-        <v>2349.599551955765</v>
+        <v>3985903.190262209</v>
       </c>
       <c r="I125">
-        <v>-988.8128272539747</v>
+        <v>1115476.282749407</v>
       </c>
       <c r="J125">
-        <v>1534.472906627243</v>
+        <v>4842397.809357607</v>
       </c>
       <c r="K125">
-        <v>3101.871319421682</v>
+        <v>3987483.494289526</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,22 +4823,22 @@
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>79.57153424482607</v>
+        <v>1116434.605491194</v>
       </c>
       <c r="G126">
-        <v>48.91060387723522</v>
+        <v>4841307.160420814</v>
       </c>
       <c r="H126">
-        <v>2393.1483735055</v>
+        <v>3985931.619111959</v>
       </c>
       <c r="I126">
-        <v>-938.7253410465891</v>
+        <v>1115521.063782844</v>
       </c>
       <c r="J126">
-        <v>1470.824615979483</v>
+        <v>4842349.157753177</v>
       </c>
       <c r="K126">
-        <v>3148.103671876157</v>
+        <v>3987529.763152217</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4858,22 +4858,22 @@
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>76.19624079502073</v>
+        <v>1116431.46130839</v>
       </c>
       <c r="G127">
-        <v>58.80333070202717</v>
+        <v>4841323.673243285</v>
       </c>
       <c r="H127">
-        <v>2432.925249493147</v>
+        <v>3985957.585620139</v>
       </c>
       <c r="I127">
-        <v>-887.4044965709891</v>
+        <v>1115566.947508031</v>
       </c>
       <c r="J127">
-        <v>1407.176325331722</v>
+        <v>4842300.506148749</v>
       </c>
       <c r="K127">
-        <v>3179.19928362674</v>
+        <v>3987560.88332054</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4893,22 +4893,22 @@
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>73.21617569338171</v>
+        <v>1116428.685292146</v>
       </c>
       <c r="G128">
-        <v>68.69605752681913</v>
+        <v>4841340.186065756</v>
       </c>
       <c r="H128">
-        <v>2469.531822512417</v>
+        <v>3985981.482541506</v>
       </c>
       <c r="I128">
-        <v>-834.8199235144884</v>
+        <v>1115613.961077739</v>
       </c>
       <c r="J128">
-        <v>1343.528034683961</v>
+        <v>4842251.854544321</v>
       </c>
       <c r="K128">
-        <v>3195.158154673431</v>
+        <v>3987576.854794496</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4928,22 +4928,22 @@
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>70.55990383255988</v>
+        <v>1116426.210898606</v>
       </c>
       <c r="G129">
-        <v>78.58878435161107</v>
+        <v>4841356.698888228</v>
       </c>
       <c r="H129">
-        <v>2503.436359823841</v>
+        <v>3986003.615562855</v>
       </c>
       <c r="I129">
-        <v>-780.9405037233915</v>
+        <v>1115662.13231335</v>
       </c>
       <c r="J129">
-        <v>1279.8797440362</v>
+        <v>4842203.202939892</v>
       </c>
       <c r="K129">
-        <v>3195.980285016228</v>
+        <v>3987577.677574085</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4963,22 +4963,22 @@
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>68.17282406325458</v>
+        <v>1116423.987265232</v>
       </c>
       <c r="G130">
-        <v>88.48151117640303</v>
+        <v>4841373.2117107</v>
       </c>
       <c r="H130">
-        <v>2535.010478167693</v>
+        <v>3986024.227277121</v>
       </c>
       <c r="I130">
-        <v>-725.7343527880964</v>
+        <v>1115711.489721321</v>
       </c>
       <c r="J130">
-        <v>1216.23145338844</v>
+        <v>4842154.551335463</v>
       </c>
       <c r="K130">
-        <v>3181.665674655133</v>
+        <v>3987563.351659306</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4998,22 +4998,22 @@
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>66.01239647981015</v>
+        <v>1116421.97476488</v>
       </c>
       <c r="G131">
-        <v>98.37423800119497</v>
+        <v>4841389.724533171</v>
       </c>
       <c r="H131">
-        <v>2564.554038411758</v>
+        <v>3986043.513434711</v>
       </c>
       <c r="I131">
-        <v>-669.1688011747467</v>
+        <v>1115762.062510055</v>
       </c>
       <c r="J131">
-        <v>1152.583162740679</v>
+        <v>4842105.899731034</v>
       </c>
       <c r="K131">
-        <v>3152.214323590145</v>
+        <v>3987533.87705016</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5033,22 +5033,22 @@
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>64.04492376682131</v>
+        <v>1116420.142007532</v>
       </c>
       <c r="G132">
-        <v>108.2669648259869</v>
+        <v>4841406.237355643</v>
       </c>
       <c r="H132">
-        <v>2592.312507562597</v>
+        <v>3986061.634277496</v>
       </c>
       <c r="I132">
-        <v>-611.2103748922718</v>
+        <v>1115813.880607185</v>
       </c>
       <c r="J132">
-        <v>1088.934872092918</v>
+        <v>4842057.248126606</v>
       </c>
       <c r="K132">
-        <v>3107.626231821265</v>
+        <v>3987489.253746648</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,22 +5068,22 @@
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>62.24332259122238</v>
+        <v>1116418.463764286</v>
       </c>
       <c r="G133">
-        <v>118.1596916507789</v>
+        <v>4841422.750178114</v>
       </c>
       <c r="H133">
-        <v>2618.489367836913</v>
+        <v>3986078.722639504</v>
       </c>
       <c r="I133">
-        <v>-551.8247756833656</v>
+        <v>1115866.974677286</v>
       </c>
       <c r="J133">
-        <v>1025.286581445157</v>
+        <v>4842008.596522178</v>
       </c>
       <c r="K133">
-        <v>3047.901399348491</v>
+        <v>3987429.481748769</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5103,22 +5103,22 @@
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>60.58554450934852</v>
+        <v>1116416.919496384</v>
       </c>
       <c r="G134">
-        <v>128.0524184755708</v>
+        <v>4841439.263000586</v>
       </c>
       <c r="H134">
-        <v>2643.255177198985</v>
+        <v>3986094.889861675</v>
       </c>
       <c r="I134">
-        <v>-490.9768607276898</v>
+        <v>1115921.376140017</v>
       </c>
       <c r="J134">
-        <v>961.6382907973965</v>
+        <v>4841959.944917749</v>
       </c>
       <c r="K134">
-        <v>2973.039826171825</v>
+        <v>3987354.561056522</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5138,22 +5138,22 @@
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>59.05343410427228</v>
+        <v>1116415.492291531</v>
       </c>
       <c r="G135">
-        <v>137.9451453003628</v>
+        <v>4841455.775823058</v>
       </c>
       <c r="H135">
-        <v>2666.754310369473</v>
+        <v>3986110.230192421</v>
       </c>
       <c r="I135">
-        <v>-428.630621845285</v>
+        <v>1115977.117188719</v>
       </c>
       <c r="J135">
-        <v>897.9900001496356</v>
+        <v>4841911.293313321</v>
       </c>
       <c r="K135">
-        <v>2883.041512291266</v>
+        <v>3987264.491669909</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5173,22 +5173,22 @@
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>57.63188823499541</v>
+        <v>1116414.16808072</v>
       </c>
       <c r="G136">
-        <v>147.8378721251547</v>
+        <v>4841472.288645528</v>
       </c>
       <c r="H136">
-        <v>2689.110058300436</v>
+        <v>3986124.824116582</v>
       </c>
       <c r="I136">
-        <v>-364.7491641878893</v>
+        <v>1116034.230809466</v>
       </c>
       <c r="J136">
-        <v>834.3417095018748</v>
+        <v>4841862.641708893</v>
       </c>
       <c r="K136">
-        <v>2777.906457706814</v>
+        <v>3987159.273588928</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5208,22 +5208,22 @@
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>56.30822690850924</v>
+        <v>1116412.935052173</v>
       </c>
       <c r="G137">
-        <v>157.7305989499467</v>
+        <v>4841488.801468001</v>
       </c>
       <c r="H137">
-        <v>2710.42854360602</v>
+        <v>3986138.740911436</v>
       </c>
       <c r="I137">
-        <v>-299.2946844055438</v>
+        <v>1116092.750800579</v>
       </c>
       <c r="J137">
-        <v>770.6934188541142</v>
+        <v>4841813.990104463</v>
       </c>
       <c r="K137">
-        <v>2657.63466241847</v>
+        <v>3987038.906813581</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5243,22 +5243,22 @@
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>55.07171561343431</v>
+        <v>1116411.783206383</v>
       </c>
       <c r="G138">
-        <v>167.6233257747386</v>
+        <v>4841505.314290472</v>
       </c>
       <c r="H138">
-        <v>2730.801767267067</v>
+        <v>3986152.040635603</v>
       </c>
       <c r="I138">
-        <v>-232.2284482755753</v>
+        <v>1116152.711792636</v>
       </c>
       <c r="J138">
-        <v>707.0451282063533</v>
+        <v>4841765.338500035</v>
       </c>
       <c r="K138">
-        <v>2522.226126426232</v>
+        <v>3986903.391343866</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5278,22 +5278,22 @@
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>53.91319785075606</v>
+        <v>1116410.704013808</v>
       </c>
       <c r="G139">
-        <v>177.5160525995306</v>
+        <v>4841521.827112944</v>
       </c>
       <c r="H139">
-        <v>2750.3100081109</v>
+        <v>3986164.77569543</v>
       </c>
       <c r="I139">
-        <v>-163.5107677807118</v>
+        <v>1116214.149268959</v>
       </c>
       <c r="J139">
-        <v>643.3968375585927</v>
+        <v>4841716.686895607</v>
       </c>
       <c r="K139">
-        <v>2371.680849730103</v>
+        <v>3986752.727179783</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,22 +5313,22 @@
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>52.8248090407922</v>
+        <v>1116409.690148368</v>
       </c>
       <c r="G140">
-        <v>187.4087794243225</v>
+        <v>4841538.339935415</v>
       </c>
       <c r="H140">
-        <v>2769.023733355179</v>
+        <v>3986176.992092207</v>
       </c>
       <c r="I140">
-        <v>-93.10097762276907</v>
+        <v>1116277.099586615</v>
       </c>
       <c r="J140">
-        <v>579.7485469108318</v>
+        <v>4841668.035291178</v>
       </c>
       <c r="K140">
-        <v>2205.99883233008</v>
+        <v>3986586.914321335</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5348,22 +5348,22 @@
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>51.79975134268945</v>
+        <v>1116408.735277677</v>
       </c>
       <c r="G141">
-        <v>197.3015062491145</v>
+        <v>4841554.852757886</v>
       </c>
       <c r="H141">
-        <v>2787.005135104039</v>
+        <v>3986188.730425195</v>
       </c>
       <c r="I141">
-        <v>-20.9574111580065</v>
+        <v>1116341.599997931</v>
       </c>
       <c r="J141">
-        <v>516.1002562630708</v>
+        <v>4841619.383686749</v>
       </c>
       <c r="K141">
-        <v>2025.180074226164</v>
+        <v>3986405.952768519</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5383,22 +5383,22 @@
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>50.83211463684881</v>
+        <v>1116407.833896291</v>
       </c>
       <c r="G142">
-        <v>207.1942330739064</v>
+        <v>4841571.365580359</v>
       </c>
       <c r="H142">
-        <v>2804.309377372788</v>
+        <v>3986200.026705692</v>
       </c>
       <c r="I142">
-        <v>52.96262426008692</v>
+        <v>1116407.688672535</v>
       </c>
       <c r="J142">
-        <v>452.4519656153103</v>
+        <v>4841570.73208232</v>
       </c>
       <c r="K142">
-        <v>1829.224575418356</v>
+        <v>3986209.842521335</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5418,22 +5418,22 @@
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>49.91673289210925</v>
+        <v>1116406.981191901</v>
       </c>
       <c r="G143">
-        <v>217.0869598986984</v>
+        <v>4841587.87840283</v>
       </c>
       <c r="H143">
-        <v>2820.985616714479</v>
+        <v>3986210.913023295</v>
       </c>
       <c r="I143">
-        <v>128.7028725451651</v>
+        <v>1116475.404719952</v>
       </c>
       <c r="J143">
-        <v>388.8036749675494</v>
+        <v>4841522.080477892</v>
       </c>
       <c r="K143">
-        <v>1618.132335906655</v>
+        <v>3985998.583579785</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5453,22 +5453,22 @@
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>49.04906794146009</v>
+        <v>1116406.172937076</v>
       </c>
       <c r="G144">
-        <v>226.9796867234903</v>
+        <v>4841604.391225302</v>
       </c>
       <c r="H144">
-        <v>2837.077844048281</v>
+        <v>3986221.418095458</v>
       </c>
       <c r="I144">
-        <v>206.3081547645134</v>
+        <v>1116544.788212738</v>
       </c>
       <c r="J144">
-        <v>325.1553843197888</v>
+        <v>4841473.428873464</v>
       </c>
       <c r="K144">
-        <v>1391.903355691062</v>
+        <v>3985772.175943868</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5488,22 +5488,22 @@
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>48.22511469440776</v>
+        <v>1116405.405400958</v>
       </c>
       <c r="G145">
-        <v>236.8724135482823</v>
+        <v>4841620.904047773</v>
       </c>
       <c r="H145">
-        <v>2852.625584008017</v>
+        <v>3986231.567724025</v>
       </c>
       <c r="I145">
-        <v>285.8243956629618</v>
+        <v>1116615.880210203</v>
       </c>
       <c r="J145">
-        <v>261.5070936720279</v>
+        <v>4841424.777269035</v>
       </c>
       <c r="K145">
-        <v>1150.537634771575</v>
+        <v>3985530.619613583</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5523,22 +5523,22 @@
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>47.44132326632396</v>
+        <v>1116404.675276728</v>
       </c>
       <c r="G146">
-        <v>246.7651403730742</v>
+        <v>4841637.416870245</v>
       </c>
       <c r="H146">
-        <v>2867.664479803609</v>
+        <v>3986241.385177031</v>
       </c>
       <c r="I146">
-        <v>367.2986508399349</v>
+        <v>1116688.722782702</v>
       </c>
       <c r="J146">
-        <v>197.858803024267</v>
+        <v>4841376.125664607</v>
       </c>
       <c r="K146">
-        <v>894.0351731481959</v>
+        <v>3985273.914588932</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5558,22 +5558,22 @@
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>46.69453456976529</v>
+        <v>1116403.979621606</v>
       </c>
       <c r="G147">
-        <v>256.6578671978662</v>
+        <v>4841653.929692716</v>
       </c>
       <c r="H147">
-        <v>2882.226785374814</v>
+        <v>3986250.891509977</v>
       </c>
       <c r="I147">
-        <v>450.7791345956994</v>
+        <v>1116763.359036534</v>
       </c>
       <c r="J147">
-        <v>134.2105123765064</v>
+        <v>4841327.474060179</v>
       </c>
       <c r="K147">
-        <v>622.3959708209243</v>
+        <v>3985002.060869914</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5593,22 +5593,22 @@
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>45.98192670192319</v>
+        <v>1116403.315806908</v>
       </c>
       <c r="G148">
-        <v>266.5505940226581</v>
+        <v>4841670.442515188</v>
       </c>
       <c r="H148">
-        <v>2896.341781931087</v>
+        <v>3986260.10583776</v>
       </c>
       <c r="I148">
-        <v>536.3152484633146</v>
+        <v>1116839.833139453</v>
       </c>
       <c r="J148">
-        <v>70.5622217287455</v>
+        <v>4841278.82245575</v>
       </c>
       <c r="K148">
-        <v>335.6200277897591</v>
+        <v>3984715.058456528</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5628,22 +5628,22 @@
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>45.30097005332311</v>
+        <v>1116402.681476229</v>
       </c>
       <c r="G149">
-        <v>276.4433208474501</v>
+        <v>4841686.95533766</v>
       </c>
       <c r="H149">
-        <v>2910.036132403638</v>
+        <v>3986269.045566051</v>
       </c>
       <c r="I149">
-        <v>623.9576104431372</v>
+        <v>1116918.190346802</v>
       </c>
       <c r="J149">
-        <v>6.913931080984603</v>
+        <v>4841230.170851321</v>
       </c>
       <c r="K149">
-        <v>33.70734405470142</v>
+        <v>3984412.907348775</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,22 +5663,22 @@
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>44.64938950968625</v>
+        <v>1116402.074510236</v>
       </c>
       <c r="G150">
-        <v>286.336047672242</v>
+        <v>4841703.468160131</v>
       </c>
       <c r="H150">
-        <v>2923.334184594435</v>
+        <v>3986277.726589193</v>
       </c>
       <c r="I150">
-        <v>713.7580849572178</v>
+        <v>1116998.477028294</v>
       </c>
       <c r="J150">
-        <v>-56.73435956677599</v>
+        <v>4841181.519246893</v>
       </c>
       <c r="K150">
-        <v>-283.3420803842482</v>
+        <v>3984095.607546655</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5698,22 +5698,22 @@
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>44.02513245968907</v>
+        <v>1116401.492996862</v>
       </c>
       <c r="G151">
-        <v>296.228774497034</v>
+        <v>4841719.980982603</v>
       </c>
       <c r="H151">
-        <v>2936.258231682692</v>
+        <v>3986286.163460267</v>
       </c>
       <c r="I151">
-        <v>805.7698135412862</v>
+        <v>1117080.740695456</v>
       </c>
       <c r="J151">
-        <v>-120.3826502145369</v>
+        <v>4841132.867642464</v>
       </c>
       <c r="K151">
-        <v>-615.5282455270914</v>
+        <v>3983763.159050169</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,22 +5733,22 @@
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>43.42634158352678</v>
+        <v>1116400.935205961</v>
       </c>
       <c r="G152">
-        <v>306.1215013218259</v>
+        <v>4841736.493805074</v>
       </c>
       <c r="H152">
-        <v>2948.828737090305</v>
+        <v>3986294.369537878</v>
       </c>
       <c r="I152">
-        <v>900.0472462924998</v>
+        <v>1117165.03002974</v>
       </c>
       <c r="J152">
-        <v>-184.0309408622978</v>
+        <v>4841084.216038035</v>
       </c>
       <c r="K152">
-        <v>-962.8511513738282</v>
+        <v>3983415.561859315</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5768,22 +5768,22 @@
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>42.85133160046289</v>
+        <v>1116400.399567644</v>
       </c>
       <c r="G153">
-        <v>316.0142281466178</v>
+        <v>4841753.006627546</v>
       </c>
       <c r="H153">
-        <v>2961.064529402185</v>
+        <v>3986302.357113405</v>
       </c>
       <c r="I153">
-        <v>996.6461740915643</v>
+        <v>1117251.394911336</v>
       </c>
       <c r="J153">
-        <v>-247.6792315100587</v>
+        <v>4841035.564433606</v>
       </c>
       <c r="K153">
-        <v>-1325.310797924457</v>
+        <v>3983052.815974094</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,22 +5803,22 @@
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>42.29856931231654</v>
+        <v>1116399.884653695</v>
       </c>
       <c r="G154">
-        <v>325.9069549714098</v>
+        <v>4841769.519450018</v>
       </c>
       <c r="H154">
-        <v>2972.982972002893</v>
+        <v>3986310.137521734</v>
       </c>
       <c r="I154">
-        <v>1095.623761618296</v>
+        <v>1117339.886448688</v>
       </c>
       <c r="J154">
-        <v>-311.327522157819</v>
+        <v>4840986.912829178</v>
       </c>
       <c r="K154">
-        <v>-1702.907185178976</v>
+        <v>3982674.921394506</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5838,22 +5838,22 @@
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>41.76665640473141</v>
+        <v>1116399.389161542</v>
       </c>
       <c r="G155">
-        <v>335.7996817962018</v>
+        <v>4841786.032272489</v>
       </c>
       <c r="H155">
-        <v>2984.600111265846</v>
+        <v>3986317.721238007</v>
       </c>
       <c r="I155">
-        <v>1197.038581180164</v>
+        <v>1117430.557008736</v>
       </c>
       <c r="J155">
-        <v>-374.9758128055799</v>
+        <v>4840938.26122475</v>
       </c>
       <c r="K155">
-        <v>-2095.64031313739</v>
+        <v>3982281.878120551</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5873,22 +5873,22 @@
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>41.25431456695414</v>
+        <v>1116398.911900403</v>
       </c>
       <c r="G156">
-        <v>345.6924086209937</v>
+        <v>4841802.54509496</v>
       </c>
       <c r="H156">
-        <v>2995.930806468925</v>
+        <v>3986325.11796242</v>
       </c>
       <c r="I156">
-        <v>1300.950647373819</v>
+        <v>1117523.460247909</v>
       </c>
       <c r="J156">
-        <v>-438.6241034533408</v>
+        <v>4840889.609620321</v>
       </c>
       <c r="K156">
-        <v>-2503.510181799698</v>
+        <v>3981873.686152229</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5908,22 +5908,22 @@
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>40.76037256963988</v>
+        <v>1116398.451779244</v>
       </c>
       <c r="G157">
-        <v>355.5851354457856</v>
+        <v>4841819.057917433</v>
       </c>
       <c r="H157">
-        <v>3006.988844075598</v>
+        <v>3986332.336694832</v>
       </c>
       <c r="I157">
-        <v>1407.421452600144</v>
+        <v>1117618.651143878</v>
       </c>
       <c r="J157">
-        <v>-502.2723941011017</v>
+        <v>4840840.958015893</v>
       </c>
       <c r="K157">
-        <v>-2926.516791165898</v>
+        <v>3981450.34548954</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,22 +5943,22 @@
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>40.28375500335464</v>
+        <v>1116398.007796291</v>
       </c>
       <c r="G158">
-        <v>365.4778622705776</v>
+        <v>4841835.570739903</v>
       </c>
       <c r="H158">
-        <v>3017.787038586388</v>
+        <v>3986339.385800603</v>
       </c>
       <c r="I158">
-        <v>1516.514003453825</v>
+        <v>1117716.186028087</v>
       </c>
       <c r="J158">
-        <v>-565.9206847488625</v>
+        <v>4840792.306411465</v>
       </c>
       <c r="K158">
-        <v>-3364.660141235991</v>
+        <v>3981011.856132483</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5978,22 +5978,22 @@
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>39.82347243133952</v>
+        <v>1116397.579029853</v>
       </c>
       <c r="G159">
-        <v>375.3705890953696</v>
+        <v>4841852.083562376</v>
       </c>
       <c r="H159">
-        <v>3028.33732181109</v>
+        <v>3986346.273068868</v>
       </c>
       <c r="I159">
-        <v>1628.292858008968</v>
+        <v>1117816.122619088</v>
       </c>
       <c r="J159">
-        <v>-629.5689753966228</v>
+        <v>4840743.654807036</v>
       </c>
       <c r="K159">
-        <v>-3817.940232009973</v>
+        <v>3980558.218081059</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,22 +6013,22 @@
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>39.37861275135275</v>
+        <v>1116397.164630283</v>
       </c>
       <c r="G160">
-        <v>385.2633159201615</v>
+        <v>4841868.596384848</v>
       </c>
       <c r="H160">
-        <v>3038.650822121354</v>
+        <v>3986353.005764273</v>
       </c>
       <c r="I160">
-        <v>1742.824164022873</v>
+        <v>1117918.520056703</v>
       </c>
       <c r="J160">
-        <v>-693.2172660443838</v>
+        <v>4840695.003202607</v>
       </c>
       <c r="K160">
-        <v>-4286.357063487852</v>
+        <v>3980089.431335269</v>
       </c>
     </row>
   </sheetData>
